--- a/public/upload/Used desktop.xlsx
+++ b/public/upload/Used desktop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -108,6 +108,75 @@
   </si>
   <si>
     <t>ST307433</t>
+  </si>
+  <si>
+    <t>ST329663</t>
+  </si>
+  <si>
+    <t>6 th</t>
+  </si>
+  <si>
+    <t>intel core i5</t>
+  </si>
+  <si>
+    <t>2022-07-31 19:34:16</t>
+  </si>
+  <si>
+    <t>ST411729</t>
+  </si>
+  <si>
+    <t>ST876622</t>
+  </si>
+  <si>
+    <t>ST792293</t>
+  </si>
+  <si>
+    <t>ST255597</t>
+  </si>
+  <si>
+    <t>ST498529</t>
+  </si>
+  <si>
+    <t>ST243339</t>
+  </si>
+  <si>
+    <t>ST161278</t>
+  </si>
+  <si>
+    <t>ST466766</t>
+  </si>
+  <si>
+    <t>ST904878</t>
+  </si>
+  <si>
+    <t>ST504329</t>
+  </si>
+  <si>
+    <t>ST768991</t>
+  </si>
+  <si>
+    <t>ST856665</t>
+  </si>
+  <si>
+    <t>ST635008</t>
+  </si>
+  <si>
+    <t>ST845504</t>
+  </si>
+  <si>
+    <t>ST576100</t>
+  </si>
+  <si>
+    <t>ST521459</t>
+  </si>
+  <si>
+    <t>ST640968</t>
+  </si>
+  <si>
+    <t>ST610595</t>
+  </si>
+  <si>
+    <t>ST361638</t>
   </si>
 </sst>
 </file>
@@ -443,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +708,826 @@
       </c>
       <c r="W4"/>
     </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>48143947</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>48143948</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>48143949</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>48143950</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>48143951</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>48143952</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>48143953</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>48143954</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>48143955</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>48143956</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>48143957</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>48143958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>48143959</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>48143960</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>48143961</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>48143962</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>48143963</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>48143964</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>48143965</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>48143966</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
